--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3337.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3337.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.116901270394293</v>
+        <v>1.478339791297913</v>
       </c>
       <c r="B1">
-        <v>2.677658616993041</v>
+        <v>4.166070461273193</v>
       </c>
       <c r="C1">
-        <v>8.336929771203053</v>
+        <v>3.463298559188843</v>
       </c>
       <c r="D1">
-        <v>2.205075179715989</v>
+        <v>1.889957904815674</v>
       </c>
       <c r="E1">
-        <v>1.257377581614794</v>
+        <v>0.6581440567970276</v>
       </c>
     </row>
   </sheetData>
